--- a/Mountain_OpenAI/Results.xlsx
+++ b/Mountain_OpenAI/Results.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/PhD/PhD_working/2018-phd-pedro-fernandez/Mountain_OpenAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6172DF-7FF1-C145-968C-7624EB9550C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5373515A-9B6B-BB42-9976-E928321A6B95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26660" yWindow="1640" windowWidth="24700" windowHeight="14900" xr2:uid="{79392283-3EFA-1443-ACBC-EA357165D65D}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="24700" windowHeight="14900" xr2:uid="{79392283-3EFA-1443-ACBC-EA357165D65D}"/>
   </bookViews>
   <sheets>
     <sheet name="MountainCar-v0" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabla discretizada" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Hiperparametros</t>
   </si>
@@ -45,12 +47,6 @@
     <t>epsilon (exploracion vs explotacion)</t>
   </si>
   <si>
-    <t>descuento</t>
-  </si>
-  <si>
-    <t>condiciones iniciales (aleatoriedad)</t>
-  </si>
-  <si>
     <t>rewards</t>
   </si>
   <si>
@@ -60,16 +56,88 @@
     <t>estados</t>
   </si>
   <si>
-    <t>QLearning</t>
-  </si>
-  <si>
-    <t>Tabla Qlearning discretizada</t>
+    <t>tasa de descuento / discount rate</t>
+  </si>
+  <si>
+    <t>epsilon decay rate</t>
+  </si>
+  <si>
+    <t>condiciones iniciales al env.reset() (aleatoriedad)</t>
+  </si>
+  <si>
+    <t>Tabla Qlearning discretizada (tamaño)</t>
+  </si>
+  <si>
+    <t>episodios</t>
+  </si>
+  <si>
+    <t>Qlearning formula:</t>
+  </si>
+  <si>
+    <t>-1 in all states / 0 in goal</t>
+  </si>
+  <si>
+    <t>Como inicializamo la tabla (que random)</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>new_state</t>
+  </si>
+  <si>
+    <t>new_discrete_state</t>
+  </si>
+  <si>
+    <t>left 0, right 2, non 1</t>
+  </si>
+  <si>
+    <t>position, velocity</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>learning rate</t>
+  </si>
+  <si>
+    <t>discount rate</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>old value</t>
+  </si>
+  <si>
+    <t>next value</t>
+  </si>
+  <si>
+    <t>(1-alfa)*old value</t>
+  </si>
+  <si>
+    <t>alfa*(reward + discount * next value)</t>
+  </si>
+  <si>
+    <t>q new</t>
+  </si>
+  <si>
+    <t>alfa*(reward + discount * next value - old value)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -79,15 +147,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -95,12 +169,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,14 +287,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -208,8 +323,61 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1663700" y="3517900"/>
+          <a:off x="1663700" y="4838700"/>
           <a:ext cx="9245600" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>825499</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>709336</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9ACF945-BDE9-9046-9AFA-481164763F63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1650999" y="6908800"/>
+          <a:ext cx="9751737" cy="1689100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -518,76 +686,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64012AC9-716E-3D48-B011-D80DF4F3731D}">
-  <dimension ref="C4:I17"/>
+  <dimension ref="C4:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="12" max="12" width="33.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>11</v>
+      <c r="D15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <f>(1-M24)*M27</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31">
+        <f>M24*(M26+M25*M28)</f>
+        <v>-0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32">
+        <f>M30+M31</f>
+        <v>-0.105</v>
+      </c>
+    </row>
+    <row r="37" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37">
+        <f>M27</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38">
+        <f>M24*(M26+(M25*M28)-M27)</f>
+        <v>-0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39">
+        <f>M37+M38</f>
+        <v>-0.10499999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <f>25000/100</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="6">
+        <f>1/(250-1)</f>
+        <v>4.0160642570281121E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <f>1/M45</f>
+        <v>249.00000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <f>1/(25000-1)</f>
+        <v>4.0001600064002562E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <f>1/M47</f>
+        <v>24999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A8AF5C-29D4-0243-AAB3-E5ED67E915C6}">
+  <dimension ref="E3:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5">
+        <v>-1.2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>-0.86399999999999999</v>
+      </c>
+      <c r="G8">
+        <v>-1.14E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>-0.86399999999999999</v>
+      </c>
+      <c r="G13">
+        <v>-1.14E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M13" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F14" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F15" s="3">
+        <f>F13-F14</f>
+        <v>0.33599999999999997</v>
+      </c>
+      <c r="G15" s="3">
+        <f>G13-G14</f>
+        <v>5.8600000000000006E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <f>I13-I14</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <f>J13-J14</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L15" s="3">
+        <f>L13-L14</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="M15" s="3">
+        <f>M13-M14</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f>F15/0.045</f>
+        <v>7.4666666666666659</v>
+      </c>
+      <c r="G16">
+        <f>G15/0.0035</f>
+        <v>16.742857142857144</v>
+      </c>
+      <c r="I16">
+        <f>I15/0.045</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f>J15/0.0035</f>
+        <v>40</v>
+      </c>
+      <c r="L16">
+        <f>L15/0.045</f>
+        <v>40</v>
+      </c>
+      <c r="M16">
+        <f>M15/0.0035</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>